--- a/config_4.13/game_activity_config.xlsx
+++ b/config_4.13/game_activity_config.xlsx
@@ -15,7 +15,7 @@
     <sheet name="config|其他配置" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|其他配置'!$A$1:$O$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="168">
   <si>
     <t>title|标题</t>
   </si>
@@ -728,6 +728,38 @@
   </si>
   <si>
     <t>道具兑换（非冲金鸡）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwgp_banner_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwgp_can_show_player</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王贡品广告图（天天欢乐捕鱼）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王贡品</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1241,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
@@ -1256,7 +1288,7 @@
     <col min="2" max="2" width="15.125" style="13" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="32.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.125" style="4" customWidth="1"/>
     <col min="8" max="8" width="43.125" style="4" customWidth="1"/>
@@ -1582,7 +1614,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="C8" s="8">
         <v>7</v>
@@ -3106,8 +3138,55 @@
         <v>56</v>
       </c>
     </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="5">
+        <v>41</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="4">
+        <v>-20</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I42" s="27">
+        <v>1618272000</v>
+      </c>
+      <c r="J42" s="27">
+        <v>1618847999</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O20"/>
+  <autoFilter ref="A1:O42"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3116,16 +3195,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3136,14 +3213,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3155,13 +3234,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -3173,13 +3252,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_4.13/game_activity_config.xlsx
+++ b/config_4.13/game_activity_config.xlsx
@@ -755,11 +755,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>龙王贡品</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>new</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王来袭</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1279,7 +1279,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3149,7 +3149,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>165</v>
@@ -3182,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3195,14 +3195,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3213,16 +3215,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3234,13 +3234,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -3252,13 +3252,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
